--- a/tpn/tools/xlsx2data/data/pack.xlsx
+++ b/tpn/tools/xlsx2data/data/pack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="@Pack" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>id@ui32@!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,8 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool@ui32-ui32-ui32|@*@@Item.id-$-$|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>id@u32@!</t>
+  </si>
+  <si>
+    <t>pool@u32-u32-u32|@*@@Item.id-$-$|</t>
   </si>
 </sst>
 </file>
@@ -386,60 +384,60 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1" display="id@ui32@!"/>
+    <hyperlink ref="B1" r:id="rId2" display="pool@ui32-ui32-ui32|@*@@Item.id-$-$|"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -451,7 +449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tpn/tools/xlsx2data/data/pack.xlsx
+++ b/tpn/tools/xlsx2data/data/pack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="@Pack" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>pool@u32-u32-u32|@*@@Item.id-$-$|</t>
+  </si>
+  <si>
+    <t>pool2@u32-u32-u32;|@*@@Item.id-$-$;|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落池2(道具id-道具数量-权重)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10-1000;2-20-1000|1-10-2000;2-20-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -381,56 +393,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -438,8 +466,10 @@
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="id@ui32@!"/>
     <hyperlink ref="B1" r:id="rId2" display="pool@ui32-ui32-ui32|@*@@Item.id-$-$|"/>
+    <hyperlink ref="C1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/tpn/tools/xlsx2data/data/pack.xlsx
+++ b/tpn/tools/xlsx2data/data/pack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="@Pack" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>1-10-1000;2-20-1000|1-10-2000;2-20-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10-1000^1-20-2000;2-20-1000^2-20-1000|1-10-2000;2-20-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool3@u32-u32-u32^;|@*@@Item.id-$-$^;|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,20 +401,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -416,8 +425,11 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -427,8 +439,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -438,8 +453,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -449,8 +467,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -459,6 +480,9 @@
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -467,9 +491,10 @@
     <hyperlink ref="A1" r:id="rId1" display="id@ui32@!"/>
     <hyperlink ref="B1" r:id="rId2" display="pool@ui32-ui32-ui32|@*@@Item.id-$-$|"/>
     <hyperlink ref="C1" r:id="rId3"/>
+    <hyperlink ref="D1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
